--- a/data/finalplatecounts.xlsx
+++ b/data/finalplatecounts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameliafoley/Desktop/R/encapsulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0E4938-9C7A-E041-9B3D-BEC869B1732D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3118DDCA-B257-1540-A1FD-6675B66DC9DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31220" yWindow="-2620" windowWidth="26840" windowHeight="17400" xr2:uid="{74811046-5162-054B-962B-4F1C12AFC12A}"/>
+    <workbookView xWindow="1960" yWindow="500" windowWidth="26840" windowHeight="16560" xr2:uid="{74811046-5162-054B-962B-4F1C12AFC12A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="14">
   <si>
     <t>exp</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>avg_cfu</t>
+  </si>
+  <si>
+    <t>sample_type</t>
+  </si>
+  <si>
+    <t>supernatant</t>
+  </si>
+  <si>
+    <t>capsule</t>
   </si>
 </sst>
 </file>
@@ -441,19 +450,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12985F89-0F17-AF42-BB7B-013FF412B998}">
-  <dimension ref="A1:P59"/>
+  <dimension ref="A1:Q91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q39" sqref="Q39"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,46 +473,49 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" t="s">
-        <v>6</v>
-      </c>
       <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -513,35 +525,35 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>29</v>
+      <c r="D2" t="s">
+        <v>12</v>
       </c>
       <c r="E2">
         <v>29</v>
       </c>
       <c r="F2">
+        <v>29</v>
+      </c>
+      <c r="G2">
         <v>34</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>44</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <f>10^4</f>
         <v>10000</v>
       </c>
-      <c r="I2" s="1">
-        <f>AVERAGE(D2:G2)*H2/0.02</f>
+      <c r="J2" s="1">
+        <f>AVERAGE(E2:H2)*I2/0.02</f>
         <v>17000000</v>
       </c>
-      <c r="O2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="1">
-        <f>AVERAGE(I2,O2)</f>
+      <c r="Q2" s="1">
+        <f>AVERAGE(J2,P2)</f>
         <v>17000000</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -551,35 +563,35 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
         <v>54</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>47</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>53</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>49</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H7" si="0">10^4</f>
-        <v>10000</v>
-      </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:I10" si="1">AVERAGE(D3:G3)*H3/0.02</f>
+      <c r="I3">
+        <f t="shared" ref="I3:I7" si="0">10^4</f>
+        <v>10000</v>
+      </c>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:J10" si="1">AVERAGE(E3:H3)*I3/0.02</f>
         <v>25375000</v>
       </c>
-      <c r="O3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" s="1">
-        <f t="shared" ref="P3:P27" si="2">AVERAGE(I3,O3)</f>
+      <c r="Q3" s="1">
+        <f t="shared" ref="Q3:Q27" si="2">AVERAGE(J3,P3)</f>
         <v>25375000</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -589,35 +601,35 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
         <v>22</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>29</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>35</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>24</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <f t="shared" si="1"/>
         <v>13750000</v>
       </c>
-      <c r="O4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <f t="shared" si="2"/>
         <v>13750000</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -627,35 +639,35 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
         <v>35</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>43</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>50</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>42</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <f t="shared" si="1"/>
         <v>21250000</v>
       </c>
-      <c r="O5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <f t="shared" si="2"/>
         <v>21250000</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -665,35 +677,35 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
         <v>38</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>46</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>48</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>45</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <f t="shared" si="1"/>
         <v>22125000</v>
       </c>
-      <c r="O6" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <f t="shared" si="2"/>
         <v>22125000</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -703,35 +715,35 @@
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
         <v>46</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>33</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>44</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>43</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <f t="shared" si="1"/>
         <v>20750000</v>
       </c>
-      <c r="O7" t="s">
-        <v>9</v>
-      </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <f t="shared" si="2"/>
         <v>20750000</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -741,35 +753,35 @@
       <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8">
-        <v>15</v>
+      <c r="D8" t="s">
+        <v>12</v>
       </c>
       <c r="E8">
         <v>15</v>
       </c>
       <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="G8">
         <v>28</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>20</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <f>10^5</f>
         <v>100000</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <f t="shared" si="1"/>
         <v>97500000</v>
       </c>
-      <c r="O8" t="s">
-        <v>9</v>
-      </c>
-      <c r="P8" s="1">
+      <c r="Q8" s="1">
         <f t="shared" si="2"/>
         <v>97500000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -779,35 +791,35 @@
       <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
         <v>20</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>21</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>26</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>19</v>
       </c>
-      <c r="H9">
-        <f t="shared" ref="H9:H10" si="3">10^5</f>
+      <c r="I9">
+        <f t="shared" ref="I9:I10" si="3">10^5</f>
         <v>100000</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <f t="shared" si="1"/>
         <v>107500000</v>
       </c>
-      <c r="O9" t="s">
-        <v>9</v>
-      </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
         <f t="shared" si="2"/>
         <v>107500000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -817,35 +829,35 @@
       <c r="C10">
         <v>9</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
         <v>19</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>23</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>15</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>21</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <f t="shared" si="1"/>
         <v>97500000</v>
       </c>
-      <c r="O10" t="s">
-        <v>9</v>
-      </c>
-      <c r="P10" s="1">
+      <c r="Q10" s="1">
         <f t="shared" si="2"/>
         <v>97500000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -855,18 +867,18 @@
       <c r="C11">
         <v>10</v>
       </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P11" s="1">
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -876,18 +888,18 @@
       <c r="C12">
         <v>11</v>
       </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12" t="s">
-        <v>9</v>
-      </c>
-      <c r="P12" s="1">
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -897,18 +909,18 @@
       <c r="C13">
         <v>12</v>
       </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="O13" t="s">
-        <v>9</v>
-      </c>
-      <c r="P13" s="1">
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -918,18 +930,18 @@
       <c r="C14">
         <v>13</v>
       </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" t="s">
-        <v>9</v>
-      </c>
-      <c r="P14" s="1">
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -939,35 +951,35 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15">
         <v>28</v>
-      </c>
-      <c r="E15">
-        <v>26</v>
       </c>
       <c r="F15">
         <v>26</v>
       </c>
       <c r="G15">
+        <v>26</v>
+      </c>
+      <c r="H15">
         <v>31</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <f>10^4</f>
         <v>10000</v>
       </c>
-      <c r="I15" s="1">
-        <f>AVERAGE(D15:G15)*H15/0.02</f>
+      <c r="J15" s="1">
+        <f>AVERAGE(E15:H15)*I15/0.02</f>
         <v>13875000</v>
       </c>
-      <c r="O15" t="s">
-        <v>9</v>
-      </c>
-      <c r="P15" s="1">
+      <c r="Q15" s="1">
         <f t="shared" si="2"/>
         <v>13875000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -977,35 +989,35 @@
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
         <v>37</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>9</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>33</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>22</v>
       </c>
-      <c r="H16">
-        <f t="shared" ref="H16:H17" si="4">10^4</f>
-        <v>10000</v>
-      </c>
-      <c r="I16" s="1">
-        <f t="shared" ref="I16:I23" si="5">AVERAGE(D16:G16)*H16/0.02</f>
+      <c r="I16">
+        <f t="shared" ref="I16:I17" si="4">10^4</f>
+        <v>10000</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" ref="J16:J23" si="5">AVERAGE(E16:H16)*I16/0.02</f>
         <v>15333333.333333334</v>
       </c>
-      <c r="O16" t="s">
-        <v>9</v>
-      </c>
-      <c r="P16" s="1">
+      <c r="Q16" s="1">
         <f t="shared" si="2"/>
         <v>15333333.333333334</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1015,35 +1027,35 @@
       <c r="C17">
         <v>3</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
         <v>41</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>50</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>44</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>49</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <f t="shared" si="4"/>
         <v>10000</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <f t="shared" si="5"/>
         <v>23000000</v>
       </c>
-      <c r="O17" t="s">
-        <v>9</v>
-      </c>
-      <c r="P17" s="1">
+      <c r="Q17" s="1">
         <f t="shared" si="2"/>
         <v>23000000</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1053,35 +1065,35 @@
       <c r="C18">
         <v>4</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18">
         <v>11</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>8</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>7</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>14</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <f>10^5</f>
         <v>100000</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <f t="shared" si="5"/>
         <v>50000000</v>
       </c>
-      <c r="O18" t="s">
-        <v>9</v>
-      </c>
-      <c r="P18" s="1">
+      <c r="Q18" s="1">
         <f t="shared" si="2"/>
         <v>50000000</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1091,35 +1103,35 @@
       <c r="C19">
         <v>5</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19">
         <v>35</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>46</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>40</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>43</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <f>10^4</f>
         <v>10000</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <f t="shared" si="5"/>
         <v>20500000</v>
       </c>
-      <c r="O19" t="s">
-        <v>9</v>
-      </c>
-      <c r="P19" s="1">
+      <c r="Q19" s="1">
         <f t="shared" si="2"/>
         <v>20500000</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1129,52 +1141,55 @@
       <c r="C20">
         <v>6</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20">
         <v>49</v>
-      </c>
-      <c r="E20">
-        <v>51</v>
       </c>
       <c r="F20">
         <v>51</v>
       </c>
       <c r="G20">
+        <v>51</v>
+      </c>
+      <c r="H20">
         <v>60</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <f>10^4</f>
         <v>10000</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="1">
         <f t="shared" si="5"/>
         <v>26375000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>7</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>8</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>10</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>8</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <f>10^5</f>
         <v>100000</v>
       </c>
-      <c r="O20">
-        <f>AVERAGE(J20:M20)*N20/0.02</f>
+      <c r="P20">
+        <f>AVERAGE(K20:N20)*O20/0.02</f>
         <v>41250000</v>
       </c>
-      <c r="P20" s="1">
+      <c r="Q20" s="1">
         <f t="shared" si="2"/>
         <v>33812500</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1184,35 +1199,35 @@
       <c r="C21">
         <v>7</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21">
         <v>7</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>14</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>16</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>11</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <f>10^5</f>
         <v>100000</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <f t="shared" si="5"/>
         <v>60000000</v>
       </c>
-      <c r="O21" t="s">
-        <v>9</v>
-      </c>
-      <c r="P21" s="1">
+      <c r="Q21" s="1">
         <f t="shared" si="2"/>
         <v>60000000</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1222,35 +1237,35 @@
       <c r="C22">
         <v>8</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22">
         <v>23</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>22</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>20</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>23</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <f>10^5</f>
         <v>100000</v>
       </c>
-      <c r="I22" s="1">
+      <c r="J22" s="1">
         <f t="shared" si="5"/>
         <v>110000000</v>
       </c>
-      <c r="O22" t="s">
-        <v>9</v>
-      </c>
-      <c r="P22" s="1">
+      <c r="Q22" s="1">
         <f t="shared" si="2"/>
         <v>110000000</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1260,35 +1275,35 @@
       <c r="C23">
         <v>9</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23">
         <v>15</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>19</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>16</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>11</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <f>10^5</f>
         <v>100000</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J23" s="1">
         <f t="shared" si="5"/>
         <v>76250000</v>
       </c>
-      <c r="O23" t="s">
-        <v>9</v>
-      </c>
-      <c r="P23" s="1">
+      <c r="Q23" s="1">
         <f t="shared" si="2"/>
         <v>76250000</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1298,18 +1313,18 @@
       <c r="C24">
         <v>10</v>
       </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="O24" t="s">
-        <v>9</v>
-      </c>
-      <c r="P24" s="1">
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1319,18 +1334,18 @@
       <c r="C25">
         <v>11</v>
       </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="O25" t="s">
-        <v>9</v>
-      </c>
-      <c r="P25" s="1">
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1340,18 +1355,18 @@
       <c r="C26">
         <v>12</v>
       </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-      <c r="O26" t="s">
-        <v>9</v>
-      </c>
-      <c r="P26" s="1">
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1361,18 +1376,18 @@
       <c r="C27">
         <v>13</v>
       </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="O27" t="s">
-        <v>9</v>
-      </c>
-      <c r="P27" s="1">
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1382,52 +1397,52 @@
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28">
         <v>74</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>71</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>68</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>73</v>
       </c>
-      <c r="H28">
-        <f t="shared" ref="H28:H34" si="6">10^4</f>
-        <v>10000</v>
-      </c>
-      <c r="I28" s="1">
-        <f>AVERAGE(D28:G28)*H28/0.02</f>
+      <c r="I28">
+        <f t="shared" ref="I28:I34" si="6">10^4</f>
+        <v>10000</v>
+      </c>
+      <c r="J28" s="1">
+        <f>AVERAGE(E28:H28)*I28/0.02</f>
         <v>35750000</v>
       </c>
-      <c r="J28">
-        <v>3</v>
-      </c>
-      <c r="K28">
-        <v>6</v>
-      </c>
       <c r="L28">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M28">
         <v>10</v>
       </c>
       <c r="N28">
+        <v>10</v>
+      </c>
+      <c r="O28">
         <f>10^5</f>
         <v>100000</v>
       </c>
-      <c r="O28" s="1">
-        <f>AVERAGE(J28:M28)*N28/0.02</f>
-        <v>36250000</v>
-      </c>
       <c r="P28" s="1">
-        <f>AVERAGE(I28,O28)</f>
-        <v>36000000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+        <f>AVERAGE(K28:N28)*O28/0.02</f>
+        <v>43333333.333333328</v>
+      </c>
+      <c r="Q28" s="1">
+        <f>AVERAGE(J28,P28)</f>
+        <v>39541666.666666664</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1437,35 +1452,35 @@
       <c r="C29">
         <v>2</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29">
         <v>39</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>44</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>41</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>40</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <f t="shared" si="6"/>
         <v>10000</v>
       </c>
-      <c r="I29" s="1">
-        <f t="shared" ref="I29:I41" si="7">AVERAGE(D29:G29)*H29/0.02</f>
+      <c r="J29" s="1">
+        <f t="shared" ref="J29:J41" si="7">AVERAGE(E29:H29)*I29/0.02</f>
         <v>20500000</v>
       </c>
-      <c r="O29" t="s">
-        <v>9</v>
-      </c>
-      <c r="P29" s="1">
-        <f t="shared" ref="P29:P59" si="8">AVERAGE(I29,O29)</f>
+      <c r="Q29" s="1">
+        <f t="shared" ref="Q29:Q59" si="8">AVERAGE(J29,P29)</f>
         <v>20500000</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1475,52 +1490,46 @@
       <c r="C30">
         <v>3</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30">
         <v>22</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>34</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>24</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>35</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <f t="shared" si="6"/>
         <v>10000</v>
       </c>
-      <c r="I30" s="1">
+      <c r="J30" s="1">
         <f t="shared" si="7"/>
         <v>14375000</v>
       </c>
-      <c r="J30">
-        <v>5</v>
-      </c>
-      <c r="K30">
-        <v>5</v>
-      </c>
-      <c r="L30">
+      <c r="M30">
         <v>8</v>
       </c>
-      <c r="M30">
-        <v>2</v>
-      </c>
-      <c r="N30">
+      <c r="O30">
         <f>10^5</f>
         <v>100000</v>
       </c>
-      <c r="O30" s="1">
-        <f t="shared" ref="O30:O34" si="9">AVERAGE(J30:M30)*N30/0.02</f>
-        <v>25000000</v>
-      </c>
       <c r="P30" s="1">
+        <f t="shared" ref="P30:P34" si="9">AVERAGE(K30:N30)*O30/0.02</f>
+        <v>40000000</v>
+      </c>
+      <c r="Q30" s="1">
         <f t="shared" si="8"/>
-        <v>19687500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+        <v>27187500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -1530,35 +1539,35 @@
       <c r="C31">
         <v>4</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31">
         <v>45</v>
-      </c>
-      <c r="E31">
-        <v>29</v>
       </c>
       <c r="F31">
         <v>29</v>
       </c>
       <c r="G31">
+        <v>29</v>
+      </c>
+      <c r="H31">
         <v>32</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <f t="shared" si="6"/>
         <v>10000</v>
       </c>
-      <c r="I31" s="1">
+      <c r="J31" s="1">
         <f t="shared" si="7"/>
         <v>16875000</v>
       </c>
-      <c r="O31" t="s">
-        <v>9</v>
-      </c>
-      <c r="P31" s="1">
+      <c r="Q31" s="1">
         <f t="shared" si="8"/>
         <v>16875000</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1568,52 +1577,49 @@
       <c r="C32">
         <v>5</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32">
         <v>71</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>78</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>80</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>83</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <f t="shared" si="6"/>
         <v>10000</v>
       </c>
-      <c r="I32" s="1">
+      <c r="J32" s="1">
         <f t="shared" si="7"/>
         <v>39000000</v>
       </c>
-      <c r="J32">
-        <v>4</v>
-      </c>
-      <c r="K32">
+      <c r="L32">
         <v>7</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>8</v>
       </c>
-      <c r="M32">
-        <v>5</v>
-      </c>
-      <c r="N32">
+      <c r="O32">
         <f>10^5</f>
         <v>100000</v>
       </c>
-      <c r="O32" s="1">
+      <c r="P32" s="1">
         <f t="shared" si="9"/>
-        <v>30000000</v>
-      </c>
-      <c r="P32" s="1">
+        <v>37500000</v>
+      </c>
+      <c r="Q32" s="1">
         <f t="shared" si="8"/>
-        <v>34500000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+        <v>38250000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1623,35 +1629,35 @@
       <c r="C33">
         <v>6</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33">
         <v>40</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>36</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>38</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>45</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <f t="shared" si="6"/>
         <v>10000</v>
       </c>
-      <c r="I33" s="1">
+      <c r="J33" s="1">
         <f t="shared" si="7"/>
         <v>19875000</v>
       </c>
-      <c r="O33" t="s">
-        <v>9</v>
-      </c>
-      <c r="P33" s="1">
+      <c r="Q33" s="1">
         <f t="shared" si="8"/>
         <v>19875000</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1661,52 +1667,49 @@
       <c r="C34">
         <v>7</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34">
         <v>51</v>
-      </c>
-      <c r="E34">
-        <v>63</v>
       </c>
       <c r="F34">
         <v>63</v>
       </c>
       <c r="G34">
+        <v>63</v>
+      </c>
+      <c r="H34">
         <v>64</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <f t="shared" si="6"/>
         <v>10000</v>
       </c>
-      <c r="I34" s="1">
+      <c r="J34" s="1">
         <f t="shared" si="7"/>
         <v>30125000</v>
       </c>
-      <c r="J34">
-        <v>3</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
+      <c r="M34">
         <v>9</v>
       </c>
-      <c r="M34">
-        <v>6</v>
-      </c>
       <c r="N34">
+        <v>6</v>
+      </c>
+      <c r="O34">
         <f>10^5</f>
         <v>100000</v>
       </c>
-      <c r="O34" s="1">
+      <c r="P34" s="1">
         <f t="shared" si="9"/>
-        <v>23750000</v>
-      </c>
-      <c r="P34" s="1">
+        <v>37500000</v>
+      </c>
+      <c r="Q34" s="1">
         <f t="shared" si="8"/>
-        <v>26937500</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+        <v>33812500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1716,35 +1719,35 @@
       <c r="C35">
         <v>8</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35">
         <v>9</v>
-      </c>
-      <c r="E35">
-        <v>11</v>
       </c>
       <c r="F35">
         <v>11</v>
       </c>
       <c r="G35">
+        <v>11</v>
+      </c>
+      <c r="H35">
         <v>8</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <f>10^5</f>
         <v>100000</v>
       </c>
-      <c r="I35" s="1">
+      <c r="J35" s="1">
         <f t="shared" si="7"/>
         <v>48750000</v>
       </c>
-      <c r="O35" t="s">
-        <v>9</v>
-      </c>
-      <c r="P35" s="1">
+      <c r="Q35" s="1">
         <f t="shared" si="8"/>
         <v>48750000</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1754,35 +1757,35 @@
       <c r="C36">
         <v>9</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36">
         <v>14</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>16</v>
-      </c>
-      <c r="F36">
-        <v>18</v>
       </c>
       <c r="G36">
         <v>18</v>
       </c>
       <c r="H36">
+        <v>18</v>
+      </c>
+      <c r="I36">
         <f>10^5</f>
         <v>100000</v>
       </c>
-      <c r="I36" s="1">
+      <c r="J36" s="1">
         <f t="shared" si="7"/>
         <v>82500000</v>
       </c>
-      <c r="O36" t="s">
-        <v>9</v>
-      </c>
-      <c r="P36" s="1">
+      <c r="Q36" s="1">
         <f t="shared" si="8"/>
         <v>82500000</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1792,35 +1795,35 @@
       <c r="C37">
         <v>10</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37">
         <v>15</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>19</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>16</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>17</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <f>10^5</f>
         <v>100000</v>
       </c>
-      <c r="I37" s="1">
+      <c r="J37" s="1">
         <f t="shared" si="7"/>
         <v>83750000</v>
       </c>
-      <c r="O37" t="s">
-        <v>9</v>
-      </c>
-      <c r="P37" s="1">
+      <c r="Q37" s="1">
         <f t="shared" si="8"/>
         <v>83750000</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1830,35 +1833,35 @@
       <c r="C38">
         <v>11</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38">
         <v>18</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>14</v>
-      </c>
-      <c r="F38">
-        <v>16</v>
       </c>
       <c r="G38">
         <v>16</v>
       </c>
       <c r="H38">
+        <v>16</v>
+      </c>
+      <c r="I38">
         <f>10^5</f>
         <v>100000</v>
       </c>
-      <c r="I38" s="1">
+      <c r="J38" s="1">
         <f t="shared" si="7"/>
         <v>80000000</v>
       </c>
-      <c r="O38" t="s">
-        <v>9</v>
-      </c>
-      <c r="P38" s="1">
+      <c r="Q38" s="1">
         <f t="shared" si="8"/>
         <v>80000000</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1868,35 +1871,35 @@
       <c r="C39">
         <v>12</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="s">
         <v>12</v>
       </c>
       <c r="E39">
+        <v>12</v>
+      </c>
+      <c r="F39">
         <v>27</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>17</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>10</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <f>10^5</f>
         <v>100000</v>
       </c>
-      <c r="I39" s="1">
+      <c r="J39" s="1">
         <f t="shared" si="7"/>
         <v>82500000</v>
       </c>
-      <c r="O39" t="s">
-        <v>9</v>
-      </c>
-      <c r="P39" s="1">
+      <c r="Q39" s="1">
         <f t="shared" si="8"/>
         <v>82500000</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -1906,18 +1909,18 @@
       <c r="C40">
         <v>13</v>
       </c>
-      <c r="I40" s="1">
-        <v>0</v>
-      </c>
-      <c r="O40" t="s">
-        <v>9</v>
-      </c>
-      <c r="P40" s="1">
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -1927,35 +1930,35 @@
       <c r="C41">
         <v>14</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41">
         <v>22</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>21</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>28</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>31</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <f>10^4</f>
         <v>10000</v>
       </c>
-      <c r="I41" s="1">
+      <c r="J41" s="1">
         <f t="shared" si="7"/>
         <v>12750000</v>
       </c>
-      <c r="O41" t="s">
-        <v>9</v>
-      </c>
-      <c r="P41" s="1">
+      <c r="Q41" s="1">
         <f t="shared" si="8"/>
         <v>12750000</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -1965,18 +1968,18 @@
       <c r="C42">
         <v>15</v>
       </c>
-      <c r="I42" s="1">
-        <v>0</v>
-      </c>
-      <c r="O42" t="s">
-        <v>9</v>
-      </c>
-      <c r="P42" s="1">
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -1986,18 +1989,18 @@
       <c r="C43">
         <v>16</v>
       </c>
-      <c r="I43" s="1">
-        <v>0</v>
-      </c>
-      <c r="O43" t="s">
-        <v>9</v>
-      </c>
-      <c r="P43" s="1">
-        <f>AVERAGE(I43,O43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="1">
+        <f>AVERAGE(J43,P43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -2007,52 +2010,52 @@
       <c r="C44">
         <v>1</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44">
         <v>55</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>49</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>53</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>51</v>
       </c>
-      <c r="H44">
-        <f>10^4</f>
-        <v>10000</v>
-      </c>
-      <c r="I44" s="1">
-        <f t="shared" ref="I44:I59" si="10">AVERAGE(D44:G44)*H44/0.02</f>
+      <c r="I44">
+        <f t="shared" ref="I44:I49" si="10">10^4</f>
+        <v>10000</v>
+      </c>
+      <c r="J44" s="1">
+        <f t="shared" ref="J44:J59" si="11">AVERAGE(E44:H44)*I44/0.02</f>
         <v>26000000</v>
       </c>
-      <c r="J44">
-        <v>5</v>
-      </c>
-      <c r="K44">
+      <c r="L44">
         <v>7</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>8</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>7</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <f>10^5</f>
         <v>100000</v>
       </c>
-      <c r="O44" s="1">
-        <f t="shared" ref="O44:O46" si="11">AVERAGE(J44:M44)*N44/0.02</f>
-        <v>33750000</v>
-      </c>
       <c r="P44" s="1">
+        <f t="shared" ref="P44:P46" si="12">AVERAGE(K44:N44)*O44/0.02</f>
+        <v>36666666.666666664</v>
+      </c>
+      <c r="Q44" s="1">
         <f t="shared" si="8"/>
-        <v>29875000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+        <v>31333333.333333332</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -2062,52 +2065,49 @@
       <c r="C45">
         <v>2</v>
       </c>
-      <c r="D45">
-        <v>65</v>
+      <c r="D45" t="s">
+        <v>12</v>
       </c>
       <c r="E45">
         <v>65</v>
       </c>
       <c r="F45">
+        <v>65</v>
+      </c>
+      <c r="G45">
         <v>40</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>48</v>
       </c>
-      <c r="H45">
-        <f>10^4</f>
-        <v>10000</v>
-      </c>
-      <c r="I45" s="1">
+      <c r="I45">
         <f t="shared" si="10"/>
+        <v>10000</v>
+      </c>
+      <c r="J45" s="1">
+        <f t="shared" si="11"/>
         <v>27250000</v>
       </c>
-      <c r="J45">
-        <v>4</v>
-      </c>
-      <c r="K45">
+      <c r="L45">
         <v>11</v>
       </c>
-      <c r="L45">
-        <v>2</v>
-      </c>
-      <c r="M45">
+      <c r="N45">
         <v>7</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <f>10^5</f>
         <v>100000</v>
       </c>
-      <c r="O45" s="1">
-        <f t="shared" si="11"/>
-        <v>30000000</v>
-      </c>
       <c r="P45" s="1">
+        <f t="shared" si="12"/>
+        <v>45000000</v>
+      </c>
+      <c r="Q45" s="1">
         <f t="shared" si="8"/>
-        <v>28625000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+        <v>36125000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -2117,52 +2117,46 @@
       <c r="C46">
         <v>3</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46">
         <v>36</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>31</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>39</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>59</v>
       </c>
-      <c r="H46">
-        <f>10^4</f>
-        <v>10000</v>
-      </c>
-      <c r="I46" s="1">
+      <c r="I46">
         <f t="shared" si="10"/>
+        <v>10000</v>
+      </c>
+      <c r="J46" s="1">
+        <f t="shared" si="11"/>
         <v>20625000</v>
       </c>
-      <c r="J46">
-        <v>5</v>
-      </c>
-      <c r="K46">
-        <v>4</v>
-      </c>
-      <c r="L46">
+      <c r="M46">
         <v>8</v>
       </c>
-      <c r="M46">
-        <v>5</v>
-      </c>
-      <c r="N46">
+      <c r="O46">
         <f>10^5</f>
         <v>100000</v>
       </c>
-      <c r="O46" s="1">
-        <f t="shared" si="11"/>
-        <v>27500000</v>
-      </c>
       <c r="P46" s="1">
+        <f t="shared" si="12"/>
+        <v>40000000</v>
+      </c>
+      <c r="Q46" s="1">
         <f t="shared" si="8"/>
-        <v>24062500</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+        <v>30312500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -2172,32 +2166,32 @@
       <c r="C47">
         <v>4</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47">
         <v>10</v>
       </c>
-      <c r="E47">
-        <v>2</v>
-      </c>
-      <c r="F47">
+      <c r="G47">
         <v>11</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>8</v>
       </c>
-      <c r="H47">
-        <f>10^4</f>
-        <v>10000</v>
-      </c>
-      <c r="I47" s="1">
+      <c r="I47">
         <f t="shared" si="10"/>
-        <v>3875000</v>
-      </c>
-      <c r="P47" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J47" s="1">
+        <f t="shared" si="11"/>
+        <v>4833333.333333333</v>
+      </c>
+      <c r="Q47" s="1">
         <f t="shared" si="8"/>
-        <v>3875000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+        <v>4833333.333333333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -2207,32 +2201,35 @@
       <c r="C48">
         <v>5</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48">
         <v>16</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>7</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>14</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>16</v>
       </c>
-      <c r="H48">
-        <f>10^4</f>
-        <v>10000</v>
-      </c>
-      <c r="I48" s="1">
+      <c r="I48">
         <f t="shared" si="10"/>
+        <v>10000</v>
+      </c>
+      <c r="J48" s="1">
+        <f t="shared" si="11"/>
         <v>6625000</v>
       </c>
-      <c r="P48" s="1">
+      <c r="Q48" s="1">
         <f t="shared" si="8"/>
         <v>6625000</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -2242,32 +2239,32 @@
       <c r="C49">
         <v>6</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49">
         <v>8</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>9</v>
       </c>
-      <c r="F49">
-        <v>6</v>
-      </c>
       <c r="G49">
-        <v>5</v>
-      </c>
-      <c r="H49">
-        <f>10^4</f>
-        <v>10000</v>
-      </c>
-      <c r="I49" s="1">
+        <v>6</v>
+      </c>
+      <c r="I49">
         <f t="shared" si="10"/>
-        <v>3500000</v>
-      </c>
-      <c r="P49" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J49" s="1">
+        <f t="shared" si="11"/>
+        <v>3833333.3333333335</v>
+      </c>
+      <c r="Q49" s="1">
         <f t="shared" si="8"/>
-        <v>3500000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+        <v>3833333.3333333335</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -2277,8 +2274,8 @@
       <c r="C50">
         <v>7</v>
       </c>
-      <c r="D50">
-        <v>11</v>
+      <c r="D50" t="s">
+        <v>12</v>
       </c>
       <c r="E50">
         <v>11</v>
@@ -2287,22 +2284,25 @@
         <v>11</v>
       </c>
       <c r="G50">
+        <v>11</v>
+      </c>
+      <c r="H50">
         <v>10</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <f>10^5</f>
         <v>100000</v>
       </c>
-      <c r="I50" s="1">
-        <f t="shared" si="10"/>
+      <c r="J50" s="1">
+        <f t="shared" si="11"/>
         <v>53750000</v>
       </c>
-      <c r="P50" s="1">
+      <c r="Q50" s="1">
         <f t="shared" si="8"/>
         <v>53750000</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -2312,32 +2312,32 @@
       <c r="C51">
         <v>8</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="s">
         <v>12</v>
       </c>
       <c r="E51">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="G51">
         <v>9</v>
       </c>
-      <c r="G51">
-        <v>5</v>
-      </c>
-      <c r="H51">
+      <c r="I51">
         <f>10^5</f>
         <v>100000</v>
       </c>
-      <c r="I51" s="1">
-        <f t="shared" si="10"/>
-        <v>40000000</v>
-      </c>
-      <c r="P51" s="1">
+      <c r="J51" s="1">
+        <f t="shared" si="11"/>
+        <v>45000000</v>
+      </c>
+      <c r="Q51" s="1">
         <f t="shared" si="8"/>
-        <v>40000000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+        <v>45000000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -2347,32 +2347,35 @@
       <c r="C52">
         <v>9</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52">
         <v>18</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>20</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>34</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>15</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <f>10^5</f>
         <v>100000</v>
       </c>
-      <c r="I52" s="1">
-        <f t="shared" si="10"/>
+      <c r="J52" s="1">
+        <f t="shared" si="11"/>
         <v>108750000</v>
       </c>
-      <c r="P52" s="1">
+      <c r="Q52" s="1">
         <f t="shared" si="8"/>
         <v>108750000</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -2382,32 +2385,35 @@
       <c r="C53">
         <v>10</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53">
         <v>7</v>
-      </c>
-      <c r="E53">
-        <v>10</v>
       </c>
       <c r="F53">
         <v>10</v>
       </c>
       <c r="G53">
+        <v>10</v>
+      </c>
+      <c r="H53">
         <v>9</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <f>10^4</f>
         <v>10000</v>
       </c>
-      <c r="I53" s="1">
-        <f t="shared" si="10"/>
+      <c r="J53" s="1">
+        <f t="shared" si="11"/>
         <v>4500000</v>
       </c>
-      <c r="P53" s="1">
+      <c r="Q53" s="1">
         <f t="shared" si="8"/>
         <v>4500000</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -2417,32 +2423,35 @@
       <c r="C54">
         <v>11</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54">
         <v>10</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>8</v>
-      </c>
-      <c r="F54">
-        <v>11</v>
       </c>
       <c r="G54">
         <v>11</v>
       </c>
       <c r="H54">
+        <v>11</v>
+      </c>
+      <c r="I54">
         <f>10^3</f>
         <v>1000</v>
       </c>
-      <c r="I54" s="1">
-        <f t="shared" si="10"/>
+      <c r="J54" s="1">
+        <f t="shared" si="11"/>
         <v>500000</v>
       </c>
-      <c r="P54" s="1">
+      <c r="Q54" s="1">
         <f t="shared" si="8"/>
         <v>500000</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -2452,11 +2461,11 @@
       <c r="C55">
         <v>12</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55">
         <v>36</v>
-      </c>
-      <c r="E55">
-        <v>19</v>
       </c>
       <c r="F55">
         <v>19</v>
@@ -2465,19 +2474,22 @@
         <v>19</v>
       </c>
       <c r="H55">
+        <v>19</v>
+      </c>
+      <c r="I55">
         <f>10^3</f>
         <v>1000</v>
       </c>
-      <c r="I55" s="1">
-        <f t="shared" si="10"/>
+      <c r="J55" s="1">
+        <f t="shared" si="11"/>
         <v>1162500</v>
       </c>
-      <c r="P55" s="1">
+      <c r="Q55" s="1">
         <f t="shared" si="8"/>
         <v>1162500</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -2487,8 +2499,8 @@
       <c r="C56">
         <v>13</v>
       </c>
-      <c r="D56">
-        <v>0</v>
+      <c r="D56" t="s">
+        <v>12</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2499,16 +2511,19 @@
       <c r="G56">
         <v>0</v>
       </c>
-      <c r="I56" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P56" s="1">
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -2518,8 +2533,8 @@
       <c r="C57">
         <v>14</v>
       </c>
-      <c r="D57">
-        <v>0</v>
+      <c r="D57" t="s">
+        <v>12</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2530,16 +2545,19 @@
       <c r="G57">
         <v>0</v>
       </c>
-      <c r="I57" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P57" s="1">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -2549,8 +2567,8 @@
       <c r="C58">
         <v>15</v>
       </c>
-      <c r="D58">
-        <v>0</v>
+      <c r="D58" t="s">
+        <v>12</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2561,16 +2579,19 @@
       <c r="G58">
         <v>0</v>
       </c>
-      <c r="I58" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P58" s="1">
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -2580,8 +2601,8 @@
       <c r="C59">
         <v>16</v>
       </c>
-      <c r="D59">
-        <v>0</v>
+      <c r="D59" t="s">
+        <v>12</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2592,12 +2613,1242 @@
       <c r="G59">
         <v>0</v>
       </c>
-      <c r="I59" s="1">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P59" s="1">
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="1">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60">
+        <v>56</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60">
+        <v>9</v>
+      </c>
+      <c r="F60">
+        <v>8</v>
+      </c>
+      <c r="G60">
+        <v>11</v>
+      </c>
+      <c r="I60">
+        <f>10^5</f>
+        <v>100000</v>
+      </c>
+      <c r="J60" s="1">
+        <f>AVERAGE(E60:H60)*I60/0.02*1.2/0.2</f>
+        <v>279999999.99999994</v>
+      </c>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1">
+        <f>AVERAGE(J60,P60)</f>
+        <v>279999999.99999994</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>56</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61">
+        <v>61</v>
+      </c>
+      <c r="F61">
+        <v>53</v>
+      </c>
+      <c r="G61">
+        <v>41</v>
+      </c>
+      <c r="H61">
+        <v>56</v>
+      </c>
+      <c r="I61">
+        <f>10^4</f>
+        <v>10000</v>
+      </c>
+      <c r="J61" s="1">
+        <f t="shared" ref="J61:J91" si="13">AVERAGE(E61:H61)*I61/0.02*1.2/0.2</f>
+        <v>158250000</v>
+      </c>
+      <c r="K61">
+        <v>8</v>
+      </c>
+      <c r="L61">
+        <v>7</v>
+      </c>
+      <c r="N61">
+        <v>6</v>
+      </c>
+      <c r="O61">
+        <f>10^5</f>
+        <v>100000</v>
+      </c>
+      <c r="P61" s="1">
+        <f>AVERAGE(K61:N61)*O61/0.02*1.2/0.2</f>
+        <v>210000000</v>
+      </c>
+      <c r="Q61" s="1">
+        <f t="shared" ref="Q61:Q91" si="14">AVERAGE(J61,P61)</f>
+        <v>184125000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62">
+        <v>56</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62">
+        <v>50</v>
+      </c>
+      <c r="F62">
+        <v>50</v>
+      </c>
+      <c r="G62">
+        <v>47</v>
+      </c>
+      <c r="H62">
+        <v>48</v>
+      </c>
+      <c r="I62">
+        <f>10^4</f>
+        <v>10000</v>
+      </c>
+      <c r="J62" s="1">
+        <f t="shared" si="13"/>
+        <v>146250000</v>
+      </c>
+      <c r="K62">
+        <v>7</v>
+      </c>
+      <c r="L62">
+        <v>7</v>
+      </c>
+      <c r="M62">
+        <v>6</v>
+      </c>
+      <c r="N62">
+        <v>6</v>
+      </c>
+      <c r="O62">
+        <f>10^5</f>
+        <v>100000</v>
+      </c>
+      <c r="P62" s="1">
+        <f t="shared" ref="P62" si="15">AVERAGE(K62:N62)*O62/0.02*1.2/0.2</f>
+        <v>195000000</v>
+      </c>
+      <c r="Q62" s="1">
+        <f t="shared" si="14"/>
+        <v>170625000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63">
+        <v>56</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63">
+        <v>29</v>
+      </c>
+      <c r="F63">
+        <v>22</v>
+      </c>
+      <c r="G63">
+        <v>19</v>
+      </c>
+      <c r="H63">
+        <v>24</v>
+      </c>
+      <c r="I63">
+        <f>10^4</f>
+        <v>10000</v>
+      </c>
+      <c r="J63" s="1">
+        <f t="shared" si="13"/>
+        <v>70500000</v>
+      </c>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1">
+        <f t="shared" si="14"/>
+        <v>70500000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64">
+        <v>56</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64">
+        <v>44</v>
+      </c>
+      <c r="F64">
+        <v>38</v>
+      </c>
+      <c r="G64">
+        <v>42</v>
+      </c>
+      <c r="H64">
+        <v>44</v>
+      </c>
+      <c r="I64">
+        <f>10^4</f>
+        <v>10000</v>
+      </c>
+      <c r="J64" s="1">
+        <f t="shared" si="13"/>
+        <v>126000000</v>
+      </c>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1">
+        <f t="shared" si="14"/>
+        <v>126000000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65">
+        <v>56</v>
+      </c>
+      <c r="C65">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65">
+        <v>40</v>
+      </c>
+      <c r="F65">
+        <v>35</v>
+      </c>
+      <c r="G65">
+        <v>31</v>
+      </c>
+      <c r="H65">
+        <v>37</v>
+      </c>
+      <c r="I65">
+        <f>10^4</f>
+        <v>10000</v>
+      </c>
+      <c r="J65" s="1">
+        <f t="shared" si="13"/>
+        <v>107250000</v>
+      </c>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1">
+        <f t="shared" si="14"/>
+        <v>107250000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66">
+        <v>56</v>
+      </c>
+      <c r="C66">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66">
+        <v>24</v>
+      </c>
+      <c r="I66">
+        <f>10^2</f>
+        <v>100</v>
+      </c>
+      <c r="J66" s="1">
+        <f t="shared" si="13"/>
+        <v>720000</v>
+      </c>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1">
+        <f t="shared" si="14"/>
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67">
+        <v>56</v>
+      </c>
+      <c r="C67">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67">
+        <v>26</v>
+      </c>
+      <c r="I67">
+        <f>10^2</f>
+        <v>100</v>
+      </c>
+      <c r="J67" s="1">
+        <f t="shared" si="13"/>
+        <v>780000</v>
+      </c>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1">
+        <f t="shared" si="14"/>
+        <v>780000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68">
+        <v>56</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68">
+        <v>10</v>
+      </c>
+      <c r="F68">
+        <v>9</v>
+      </c>
+      <c r="G68">
+        <v>15</v>
+      </c>
+      <c r="H68">
+        <v>11</v>
+      </c>
+      <c r="I68">
+        <f>10^5</f>
+        <v>100000</v>
+      </c>
+      <c r="J68" s="1">
+        <f t="shared" si="13"/>
+        <v>337500000</v>
+      </c>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1">
+        <f t="shared" si="14"/>
+        <v>337500000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69">
+        <v>56</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69">
+        <v>23</v>
+      </c>
+      <c r="F69">
+        <v>31</v>
+      </c>
+      <c r="G69">
+        <v>26</v>
+      </c>
+      <c r="H69">
+        <v>19</v>
+      </c>
+      <c r="I69">
+        <f>10^4</f>
+        <v>10000</v>
+      </c>
+      <c r="J69" s="1">
+        <f t="shared" si="13"/>
+        <v>74250000</v>
+      </c>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1">
+        <f t="shared" si="14"/>
+        <v>74250000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70">
+        <v>56</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70">
+        <v>9</v>
+      </c>
+      <c r="F70">
+        <v>10</v>
+      </c>
+      <c r="G70">
+        <v>11</v>
+      </c>
+      <c r="H70">
+        <v>11</v>
+      </c>
+      <c r="I70">
+        <f>10^5</f>
+        <v>100000</v>
+      </c>
+      <c r="J70" s="1">
+        <f t="shared" si="13"/>
+        <v>307500000</v>
+      </c>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1">
+        <f t="shared" si="14"/>
+        <v>307500000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71">
+        <v>56</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71">
+        <v>9</v>
+      </c>
+      <c r="F71">
+        <v>13</v>
+      </c>
+      <c r="G71">
+        <v>12</v>
+      </c>
+      <c r="H71">
+        <v>9</v>
+      </c>
+      <c r="I71">
+        <f>10^4</f>
+        <v>10000</v>
+      </c>
+      <c r="J71" s="1">
+        <f t="shared" si="13"/>
+        <v>32250000</v>
+      </c>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1">
+        <f t="shared" si="14"/>
+        <v>32250000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72">
+        <v>56</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="D72" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72">
+        <v>14</v>
+      </c>
+      <c r="F72">
+        <v>17</v>
+      </c>
+      <c r="G72">
+        <v>11</v>
+      </c>
+      <c r="H72">
+        <v>14</v>
+      </c>
+      <c r="I72">
+        <f>10^4</f>
+        <v>10000</v>
+      </c>
+      <c r="J72" s="1">
+        <f t="shared" si="13"/>
+        <v>42000000</v>
+      </c>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1">
+        <f t="shared" si="14"/>
+        <v>42000000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73">
+        <v>56</v>
+      </c>
+      <c r="C73">
+        <v>6</v>
+      </c>
+      <c r="D73" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73">
+        <v>46</v>
+      </c>
+      <c r="F73">
+        <v>54</v>
+      </c>
+      <c r="G73">
+        <v>54</v>
+      </c>
+      <c r="H73">
+        <v>46</v>
+      </c>
+      <c r="I73">
+        <f>10^3</f>
+        <v>1000</v>
+      </c>
+      <c r="J73" s="1">
+        <f t="shared" si="13"/>
+        <v>15000000</v>
+      </c>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1">
+        <f t="shared" si="14"/>
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74">
+        <v>56</v>
+      </c>
+      <c r="C74">
+        <v>10</v>
+      </c>
+      <c r="D74" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="J74" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75">
+        <v>56</v>
+      </c>
+      <c r="C75">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76">
+        <v>56</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76">
+        <v>45</v>
+      </c>
+      <c r="F76">
+        <v>52</v>
+      </c>
+      <c r="G76">
+        <v>45</v>
+      </c>
+      <c r="H76">
+        <v>38</v>
+      </c>
+      <c r="I76">
+        <f>10^4</f>
+        <v>10000</v>
+      </c>
+      <c r="J76" s="1">
+        <f t="shared" si="13"/>
+        <v>135000000</v>
+      </c>
+      <c r="Q76" s="1">
+        <f t="shared" si="14"/>
+        <v>135000000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77">
+        <v>56</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77">
+        <v>40</v>
+      </c>
+      <c r="F77">
+        <v>31</v>
+      </c>
+      <c r="G77">
+        <v>39</v>
+      </c>
+      <c r="H77">
+        <v>29</v>
+      </c>
+      <c r="I77">
+        <f>10^4</f>
+        <v>10000</v>
+      </c>
+      <c r="J77" s="1">
+        <f t="shared" si="13"/>
+        <v>104250000</v>
+      </c>
+      <c r="Q77" s="1">
+        <f t="shared" si="14"/>
+        <v>104250000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78">
+        <v>56</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78">
+        <v>23</v>
+      </c>
+      <c r="F78">
+        <v>42</v>
+      </c>
+      <c r="G78">
+        <v>35</v>
+      </c>
+      <c r="H78">
+        <v>35</v>
+      </c>
+      <c r="I78">
+        <f>10^4</f>
+        <v>10000</v>
+      </c>
+      <c r="J78" s="1">
+        <f t="shared" si="13"/>
+        <v>101250000</v>
+      </c>
+      <c r="Q78" s="1">
+        <f t="shared" si="14"/>
+        <v>101250000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79">
+        <v>56</v>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="D79" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79">
+        <v>40</v>
+      </c>
+      <c r="F79">
+        <v>44</v>
+      </c>
+      <c r="G79">
+        <v>43</v>
+      </c>
+      <c r="H79">
+        <v>32</v>
+      </c>
+      <c r="I79">
+        <f>10^4</f>
+        <v>10000</v>
+      </c>
+      <c r="J79" s="1">
+        <f t="shared" si="13"/>
+        <v>119250000</v>
+      </c>
+      <c r="Q79" s="1">
+        <f t="shared" si="14"/>
+        <v>119250000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80">
+        <v>56</v>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80">
+        <v>36</v>
+      </c>
+      <c r="F80">
+        <v>29</v>
+      </c>
+      <c r="G80">
+        <v>30</v>
+      </c>
+      <c r="H80">
+        <v>39</v>
+      </c>
+      <c r="I80">
+        <f>10^4</f>
+        <v>10000</v>
+      </c>
+      <c r="J80" s="1">
+        <f t="shared" si="13"/>
+        <v>100500000</v>
+      </c>
+      <c r="Q80" s="1">
+        <f t="shared" si="14"/>
+        <v>100500000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81">
+        <v>56</v>
+      </c>
+      <c r="C81">
+        <v>6</v>
+      </c>
+      <c r="D81" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81">
+        <v>8</v>
+      </c>
+      <c r="G81">
+        <v>8</v>
+      </c>
+      <c r="H81">
+        <v>8</v>
+      </c>
+      <c r="I81">
+        <f>10^5</f>
+        <v>100000</v>
+      </c>
+      <c r="J81" s="1">
+        <f t="shared" si="13"/>
+        <v>240000000</v>
+      </c>
+      <c r="Q81" s="1">
+        <f t="shared" si="14"/>
+        <v>240000000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82">
+        <v>56</v>
+      </c>
+      <c r="C82">
+        <v>13</v>
+      </c>
+      <c r="D82" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="J82" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q82" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83">
+        <v>56</v>
+      </c>
+      <c r="C83">
+        <v>14</v>
+      </c>
+      <c r="D83" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83">
+        <v>14</v>
+      </c>
+      <c r="I83">
+        <f>10^4</f>
+        <v>10000</v>
+      </c>
+      <c r="J83" s="1">
+        <f t="shared" si="13"/>
+        <v>42000000</v>
+      </c>
+      <c r="Q83" s="1">
+        <f t="shared" si="14"/>
+        <v>42000000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84">
+        <v>56</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84">
+        <v>17</v>
+      </c>
+      <c r="F84">
+        <v>14</v>
+      </c>
+      <c r="G84">
+        <v>14</v>
+      </c>
+      <c r="H84">
+        <v>15</v>
+      </c>
+      <c r="I84">
+        <f>10^5</f>
+        <v>100000</v>
+      </c>
+      <c r="J84" s="1">
+        <f t="shared" si="13"/>
+        <v>450000000</v>
+      </c>
+      <c r="Q84" s="1">
+        <f t="shared" si="14"/>
+        <v>450000000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85">
+        <v>56</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85">
+        <v>25</v>
+      </c>
+      <c r="F85">
+        <v>30</v>
+      </c>
+      <c r="G85">
+        <v>27</v>
+      </c>
+      <c r="H85">
+        <v>27</v>
+      </c>
+      <c r="I85">
+        <f>10^5</f>
+        <v>100000</v>
+      </c>
+      <c r="J85" s="1">
+        <f t="shared" si="13"/>
+        <v>817500000</v>
+      </c>
+      <c r="Q85" s="1">
+        <f t="shared" si="14"/>
+        <v>817500000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86">
+        <v>56</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86">
+        <v>48</v>
+      </c>
+      <c r="F86">
+        <v>46</v>
+      </c>
+      <c r="G86">
+        <v>51</v>
+      </c>
+      <c r="H86">
+        <v>39</v>
+      </c>
+      <c r="I86">
+        <f>10^4</f>
+        <v>10000</v>
+      </c>
+      <c r="J86" s="1">
+        <f t="shared" si="13"/>
+        <v>138000000</v>
+      </c>
+      <c r="K86">
+        <v>8</v>
+      </c>
+      <c r="L86">
+        <v>6</v>
+      </c>
+      <c r="M86">
+        <v>6</v>
+      </c>
+      <c r="O86">
+        <f>10^5</f>
+        <v>100000</v>
+      </c>
+      <c r="Q86" s="1">
+        <f t="shared" si="14"/>
+        <v>138000000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87">
+        <v>56</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+      <c r="D87" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87">
+        <v>20</v>
+      </c>
+      <c r="F87">
+        <v>18</v>
+      </c>
+      <c r="G87">
+        <v>31</v>
+      </c>
+      <c r="H87">
+        <v>22</v>
+      </c>
+      <c r="I87">
+        <f>10^5</f>
+        <v>100000</v>
+      </c>
+      <c r="J87" s="1">
+        <f t="shared" si="13"/>
+        <v>682500000</v>
+      </c>
+      <c r="Q87" s="1">
+        <f t="shared" si="14"/>
+        <v>682500000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88">
+        <v>56</v>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+      <c r="D88" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88">
+        <v>21</v>
+      </c>
+      <c r="F88">
+        <v>18</v>
+      </c>
+      <c r="G88">
+        <v>23</v>
+      </c>
+      <c r="H88">
+        <v>26</v>
+      </c>
+      <c r="I88">
+        <f>10^5</f>
+        <v>100000</v>
+      </c>
+      <c r="J88" s="1">
+        <f t="shared" si="13"/>
+        <v>660000000</v>
+      </c>
+      <c r="Q88" s="1">
+        <f t="shared" si="14"/>
+        <v>660000000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89">
+        <v>56</v>
+      </c>
+      <c r="C89">
+        <v>6</v>
+      </c>
+      <c r="D89" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89">
+        <v>24</v>
+      </c>
+      <c r="F89">
+        <v>30</v>
+      </c>
+      <c r="G89">
+        <v>26</v>
+      </c>
+      <c r="H89">
+        <v>23</v>
+      </c>
+      <c r="I89">
+        <f>10^5</f>
+        <v>100000</v>
+      </c>
+      <c r="J89" s="1">
+        <f t="shared" si="13"/>
+        <v>772500000</v>
+      </c>
+      <c r="Q89" s="1">
+        <f t="shared" si="14"/>
+        <v>772500000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90">
+        <v>56</v>
+      </c>
+      <c r="C90">
+        <v>13</v>
+      </c>
+      <c r="D90" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="J90" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q90" s="1">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91">
+        <v>56</v>
+      </c>
+      <c r="C91">
+        <v>14</v>
+      </c>
+      <c r="D91" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="J91" s="1">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q91" s="1">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
